--- a/TransferData/bin/Debug/default.xlsx
+++ b/TransferData/bin/Debug/default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="15075" windowHeight="8280"/>
+    <workbookView xWindow="600" yWindow="45" windowWidth="20475" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <t>序号</t>
   </si>
   <si>
-    <t>尺寸(0.1mm)</t>
+    <t>尺寸(mm)</t>
   </si>
   <si>
-    <t>计划</t>
+    <t>计划数量</t>
   </si>
   <si>
     <t>踢脚位置</t>
@@ -395,8 +395,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -418,10 +417,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4000</v>
+        <v>4001</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -673,7 +672,7 @@
         <v>6900</v>
       </c>
       <c r="C20">
-        <v>2002</v>
+        <v>200</v>
       </c>
       <c r="D20">
         <v>4</v>

--- a/TransferData/bin/Debug/default.xlsx
+++ b/TransferData/bin/Debug/default.xlsx
@@ -390,7 +390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
